--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E1AFB35-EAEC-4972-8043-105C79C800CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8948B78-EA26-490E-9F1B-386142106705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -35,10 +35,254 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+  <si>
+    <t>Order_ID</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Order_Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit_Price</t>
+  </si>
+  <si>
+    <t>Discount_%</t>
+  </si>
+  <si>
+    <t>Payment_Received</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Total_Amount</t>
+  </si>
+  <si>
+    <t>Discount_Amount</t>
+  </si>
+  <si>
+    <t>Net_Amount</t>
+  </si>
+  <si>
+    <t>ORD1000</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>alice@mail.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>ORD1001</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>bob@mail.com</t>
+  </si>
+  <si>
+    <t>8765432109</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>ORD1002</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>charlie@mail.net</t>
+  </si>
+  <si>
+    <t>7654321098</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>ORD1003</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>david@mail.org</t>
+  </si>
+  <si>
+    <t>6543210987</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>ORD1004</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>eva@mail.com</t>
+  </si>
+  <si>
+    <t>5432109876</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>ORD1005</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>frank@mail.com</t>
+  </si>
+  <si>
+    <t>4321098765</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>ORD1006</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>grace@mail.net</t>
+  </si>
+  <si>
+    <t>3210987654</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>ORD1007</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>hannah@mail.org</t>
+  </si>
+  <si>
+    <t>2109876543</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>ORD1008</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>ivan@mail.com</t>
+  </si>
+  <si>
+    <t>1098765432</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>ORD1009</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>julia@mail.com</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>No. of Products</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>.com</t>
+  </si>
+  <si>
+    <t>.net</t>
+  </si>
+  <si>
+    <t>.org</t>
+  </si>
+  <si>
+    <t>Domain Names</t>
+  </si>
+  <si>
+    <t>No. of emails</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -54,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +306,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -89,16 +410,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -113,8 +434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="295275"/>
-          <a:ext cx="1323975" cy="314325"/>
+          <a:off x="4962525" y="228600"/>
+          <a:ext cx="1314450" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -158,7 +479,500 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7A1124-AEE0-E0F5-4E1B-B5F748866FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="3467100" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Q1. Find the total number of products of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> each Category.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF8DDF-4A19-C690-B1A9-8664E2565D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="3419475"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C57C1AE-B0D1-91FD-3511-55AF79612A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="3238501"/>
+          <a:ext cx="5267325" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Q2. Find</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the total number of emails for each category of domain names, .com, .net, .org.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3A57F4-8915-2C34-4634-ED70DDFE59A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3971925"/>
+          <a:ext cx="2486025" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Wildcard</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (*) counts any number of characters.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92372B2-8D49-F208-9058-FDA9B3EEAFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4962525"/>
+          <a:ext cx="3467100" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Q3. Find the total number of customers whose names start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> with a vowel. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A6C936-7D2A-D566-EB11-E73148565541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="5153026"/>
+          <a:ext cx="5153025" cy="561974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Q. Find the sum of total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> amount spent on products in each Electronic and Accessories categories separately.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08E6074C-5484-43F5-894D-D8B40199C040}" name="Table1" displayName="Table1" ref="A6:O16" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A6:O16" xr:uid="{08E6074C-5484-43F5-894D-D8B40199C040}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{A8ABD84E-C852-4C8F-B33B-54CD9349E482}" name="Order_ID"/>
+    <tableColumn id="2" xr3:uid="{BF422B8C-125C-4088-9354-8ACAADCADDA3}" name="Customer_Name"/>
+    <tableColumn id="3" xr3:uid="{75BB5890-45F6-4BE8-8587-9FE242416D4F}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{0451AA6C-DAC7-48EC-AA80-9298B1BF5D89}" name="Phone_Number" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7A92BB12-20CC-49A8-94EC-CA843F90B81D}" name="Product"/>
+    <tableColumn id="6" xr3:uid="{6A518B90-DED7-45FF-ABCC-0F7F4A96D077}" name="Category"/>
+    <tableColumn id="7" xr3:uid="{9C050025-6A26-4785-957C-C69DEC26BDA0}" name="Order_Date" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2B5534B4-6B7D-46AE-9B9A-0AAE5E44B61A}" name="Quantity"/>
+    <tableColumn id="9" xr3:uid="{C2C870C1-B135-401A-9AC6-25EAE288A6B2}" name="Unit_Price"/>
+    <tableColumn id="10" xr3:uid="{6A2C0B38-0F30-492E-AE4B-7EFBAAB76358}" name="Discount_%"/>
+    <tableColumn id="11" xr3:uid="{6995F117-D192-45A1-913E-68800B7588C0}" name="Payment_Received"/>
+    <tableColumn id="12" xr3:uid="{9E1F5960-2124-457D-BA03-E5309F58BF7D}" name="Shipped"/>
+    <tableColumn id="13" xr3:uid="{A959570E-DD7A-42BC-A8D7-451710D646DE}" name="Total_Amount"/>
+    <tableColumn id="14" xr3:uid="{B75F25C0-1976-4273-8CD4-DB0AA7AD4875}" name="Discount_Amount"/>
+    <tableColumn id="15" xr3:uid="{236EF92C-E457-4741-968F-0B7FE1B29201}" name="Net_Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73D52CFE-11D0-4B2F-9F54-B915475DF201}" name="Table5" displayName="Table5" ref="A21:B23" totalsRowShown="0">
+  <autoFilter ref="A21:B23" xr:uid="{73D52CFE-11D0-4B2F-9F54-B915475DF201}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7E854F55-E1E8-4837-84FC-5FA35BEB4D52}" name="Categories"/>
+    <tableColumn id="2" xr3:uid="{07D5A557-0326-4A2E-8A6A-9256BF4287F9}" name="No. of Products" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIF(F7:F16, "Accessories")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9F15F99A-13D7-412A-8137-BFB32E87CA61}" name="Table6" displayName="Table6" ref="E21:F24" totalsRowShown="0">
+  <autoFilter ref="E21:F24" xr:uid="{9F15F99A-13D7-412A-8137-BFB32E87CA61}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1F01BED8-0BB7-4186-8CC4-34346E4717AE}" name="Domain Names"/>
+    <tableColumn id="2" xr3:uid="{05625446-897D-4FF6-8B19-CFCD04BF537E}" name="No. of emails" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(C7:C16, "*.com")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C3485EF1-4D96-4503-BC43-4138CAB24533}" name="Table7" displayName="Table7" ref="E32:F34" totalsRowShown="0">
+  <autoFilter ref="E32:F34" xr:uid="{C3485EF1-4D96-4503-BC43-4138CAB24533}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B22354CD-2371-4D74-BCE1-4E5FEFC04CDB}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{1B62882D-C062-45D5-B427-3F5DF7E70A8F}" name="Column2">
+      <calculatedColumnFormula>SUMIF(F6:F15,"Accessories",M6:M15)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,13 +1292,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D095C8E-7CBA-45B7-B7FE-172CA6C50FEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45306</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>750</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>750</v>
+      </c>
+      <c r="N7">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45318</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>0.05</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45330</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>0.15</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45342</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>900</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45354</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>240</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>80</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45378</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45390</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45402</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>400</v>
+      </c>
+      <c r="N15">
+        <v>40</v>
+      </c>
+      <c r="O15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45414</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B23" si="0">COUNTIF(F7:F16, "Accessories")</f>
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF(C7:C16, "*.com")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF(C8:C17, "*.com")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF(C9:C18, "*.com")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>COUNTIF(B7:B16, "A*") + COUNTIF(B7:B16, "E*")+ COUNTIF(B7:B16, "I*") +  COUNTIF(B7:B16, "O*") +  COUNTIF(B7:B16, "U*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f>SUMIF(F7:F16,"Electronics",M7:M16)</f>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <f>SUMIF(F7:F16,"Accessories",M7:M16)</f>
+        <v>870</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8948B78-EA26-490E-9F1B-386142106705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70BFFB-ACAC-4DFF-A703-2D84403F0A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Order_ID</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>No. of emails</t>
+  </si>
+  <si>
+    <t>jjjjj</t>
   </si>
 </sst>
 </file>
@@ -1295,29 +1298,29 @@
   <dimension ref="A6:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>73</v>
       </c>
@@ -1889,13 +1892,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNTIF(B7:B16, "A*") + COUNTIF(B7:B16, "E*")+ COUNTIF(B7:B16, "I*") +  COUNTIF(B7:B16, "O*") +  COUNTIF(B7:B16, "U*")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>26</v>
       </c>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70BFFB-ACAC-4DFF-A703-2D84403F0A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514F5F8C-7B3B-4B60-9099-8DC3E0CCA276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Order_ID</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>jjjjj</t>
+  </si>
+  <si>
+    <t>cccccc</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1301,7 @@
   <dimension ref="A6:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,6 +1905,9 @@
         <f>COUNTIF(B7:B16, "A*") + COUNTIF(B7:B16, "E*")+ COUNTIF(B7:B16, "I*") +  COUNTIF(B7:B16, "O*") +  COUNTIF(B7:B16, "U*")</f>
         <v>3</v>
       </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514F5F8C-7B3B-4B60-9099-8DC3E0CCA276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381F3B3-5AA3-4AB1-919C-9DC3586BA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Order_ID</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>cccccc</t>
+  </si>
+  <si>
+    <t>hhhhhhhh</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <dimension ref="A6:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>73</v>
       </c>
@@ -1895,12 +1898,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>76</v>
       </c>
+      <c r="M27" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNTIF(B7:B16, "A*") + COUNTIF(B7:B16, "E*")+ COUNTIF(B7:B16, "I*") +  COUNTIF(B7:B16, "O*") +  COUNTIF(B7:B16, "U*")</f>
         <v>3</v>
@@ -1909,7 +1915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>68</v>
       </c>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381F3B3-5AA3-4AB1-919C-9DC3586BA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B84FF-4750-48E4-9434-3583F48BCF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>Order_ID</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>hhhhhhhh</t>
+  </si>
+  <si>
+    <t>jjjjjjj</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
   <dimension ref="A6:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,6 +1925,9 @@
       <c r="F32" t="s">
         <v>69</v>
       </c>
+      <c r="M32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
